--- a/biology/Virologie/Mosaïque_(pathologie_végétale)/Mosaïque_(pathologie_végétale).xlsx
+++ b/biology/Virologie/Mosaïque_(pathologie_végétale)/Mosaïque_(pathologie_végétale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_(pathologie_v%C3%A9g%C3%A9tale)</t>
+          <t>Mosaïque_(pathologie_végétale)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En pathologie végétale, les mosaïques sont des symptômes de maladies virales. Ces symptômes se manifestent, surtout chez les feuilles jeunes, notamment par une décoloration différenciée du limbe foliaire, présentant des plages vert clair ou jaunes ou vert foncé, évoquant des motifs de mosaïque. Lorsque les taches colorées sont plus diffuses, on parle plutôt de marbrure. Ces symptômes peuvent toucher plus spécifiquement les nervures foliaires, on parle dans ce cas de mosaïque nervaire (vein banding)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En pathologie végétale, les mosaïques sont des symptômes de maladies virales. Ces symptômes se manifestent, surtout chez les feuilles jeunes, notamment par une décoloration différenciée du limbe foliaire, présentant des plages vert clair ou jaunes ou vert foncé, évoquant des motifs de mosaïque. Lorsque les taches colorées sont plus diffuses, on parle plutôt de marbrure. Ces symptômes peuvent toucher plus spécifiquement les nervures foliaires, on parle dans ce cas de mosaïque nervaire (vein banding). 
 Ces maladies, souvent désignées elles-mêmes sous le nom de « mosaïque », sont causées par divers phytovirus et peuvent entraîner dans certaines cultures des pertes économiques importantes.
 Les noms de virus sont le plus souvent composés du nom du principal symptôme observé et du nom de la plante sur laquelle ces virus ont été isolés pour la première fois. Un certain nombre de virus comportent dans leur nom scientifique le terme « mosaic ». Les virus en cause appartiennent notamment aux genres suivants : Alfamovirus, Bromovirus, Caulimovirus, Comovirus, Cucumovirus, Potyvirus, Tobamovirus, Tymovirus. Cependant, cela n'exclut pas que d'autres virus provoquent aussi chez certaines plantes-hôtes des symptômes de mosaïque.
 Le virus de la mosaïque du tabac a été historiquement le premier virus identifié.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_(pathologie_v%C3%A9g%C3%A9tale)</t>
+          <t>Mosaïque_(pathologie_végétale)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Principaux virus provoquant des mosaïques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Genre  Alfamovirus
 Virus de la mosaïque de la luzerne (AMV, Alfalfa mosaic virus)
@@ -586,7 +600,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_(pathologie_v%C3%A9g%C3%A9tale)</t>
+          <t>Mosaïque_(pathologie_végétale)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -604,9 +618,11 @@
           <t>Mosaïque du blé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La mosaïque du blé est une maladie virale végétale, transmise par un champignon du sol appelé Polymyxa graminis. Les mosaïques du blé peuvent entrainer des pertes de rendement allant de 20 à 80 % pour le blé tendre et jusqu'à 100 % pour le blé dur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La mosaïque du blé est une maladie virale végétale, transmise par un champignon du sol appelé Polymyxa graminis. Les mosaïques du blé peuvent entrainer des pertes de rendement allant de 20 à 80 % pour le blé tendre et jusqu'à 100 % pour le blé dur.
 Deux types provoqués par deux virus à ARN :
 le virus de la mosaïque des céréales (SBWMV, Soil-borne wheat mosaic virus), qui peut aussi infecter le triticale, appartient au genre Fuvovirus.
 le virus de la mosaïque des stries en fuseau du blé (WSMV, Wheat streak mosaic virus), qui appartient au genre Bymovirus</t>
